--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3356.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3356.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.217390664028875</v>
+        <v>0.8531859517097473</v>
       </c>
       <c r="B1">
-        <v>2.673657596718182</v>
+        <v>3.024480581283569</v>
       </c>
       <c r="C1">
-        <v>6.233643656792525</v>
+        <v>3.104901552200317</v>
       </c>
       <c r="D1">
-        <v>2.172832351611151</v>
+        <v>2.638166189193726</v>
       </c>
       <c r="E1">
-        <v>1.1688212501166</v>
+        <v>2.213926076889038</v>
       </c>
     </row>
   </sheetData>
